--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1vWDqJojoig5JxYelOR5O7o-U-YbiHeqr/Professional work/Doctoral work/a. Coursework/IRT/Final project/VI DIF/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C50DDF-9C5D-2045-A39D-1E4FAE3F8D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC52E4F8-5309-184D-9F6F-C06B03F4E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="8720" windowWidth="28620" windowHeight="17500" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="8620" windowWidth="28620" windowHeight="17500" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gender" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="education.mx" sheetId="12" r:id="rId12"/>
     <sheet name="race.mx" sheetId="13" r:id="rId13"/>
     <sheet name="age.mx" sheetId="14" r:id="rId14"/>
+    <sheet name="grm.par.R.us" sheetId="15" r:id="rId15"/>
+    <sheet name="grm.par.I.us" sheetId="16" r:id="rId16"/>
+    <sheet name="grm.par.R.mx" sheetId="17" r:id="rId17"/>
+    <sheet name="grm.par.I.mx" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,14 +43,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataSignature="AMtx7mgdZ6Vs29VDG420M79SpFtPGEDXhg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId19" roundtripDataSignature="AMtx7mgdZ6Vs29VDG420M79SpFtPGEDXhg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>gender</t>
   </si>
@@ -148,6 +152,69 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I8</t>
   </si>
 </sst>
 </file>
@@ -412,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1453,13 +1520,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2532,13 +2599,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -3573,13 +3640,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4625,13 +4692,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5688,13 +5755,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6765,9 +6832,769 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1.1266044820545136</v>
+      </c>
+      <c r="C2">
+        <v>-0.73710624830273219</v>
+      </c>
+      <c r="D2">
+        <v>9.0158358442115963E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.5672363793569906</v>
+      </c>
+      <c r="F2">
+        <v>2.7939179313053271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>2.4507929048811792</v>
+      </c>
+      <c r="C3">
+        <v>-7.4228895546184517E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.50938235465617365</v>
+      </c>
+      <c r="E3">
+        <v>1.1991486657373169</v>
+      </c>
+      <c r="F3">
+        <v>2.174728954249761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>1.8257282822558878</v>
+      </c>
+      <c r="C4">
+        <v>0.62113729521813688</v>
+      </c>
+      <c r="D4">
+        <v>1.2446973560728471</v>
+      </c>
+      <c r="E4">
+        <v>1.9114634364286334</v>
+      </c>
+      <c r="F4">
+        <v>2.8111906054037066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>1.9223360985757136</v>
+      </c>
+      <c r="C5">
+        <v>-0.22225486476441103</v>
+      </c>
+      <c r="D5">
+        <v>0.48986201815817476</v>
+      </c>
+      <c r="E5">
+        <v>1.158665994667293</v>
+      </c>
+      <c r="F5">
+        <v>2.0291950196811572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>2.7261291543741342</v>
+      </c>
+      <c r="C6">
+        <v>0.38543230022739822</v>
+      </c>
+      <c r="D6">
+        <v>1.0350578666309038</v>
+      </c>
+      <c r="E6">
+        <v>1.6830962331089077</v>
+      </c>
+      <c r="F6">
+        <v>2.4106020832655308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>2.6521742343620787</v>
+      </c>
+      <c r="C7">
+        <v>-0.17282781036434228</v>
+      </c>
+      <c r="D7">
+        <v>0.42266233548035598</v>
+      </c>
+      <c r="E7">
+        <v>1.0618115118783129</v>
+      </c>
+      <c r="F7">
+        <v>1.9130631831172362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>2.4193103679025181</v>
+      </c>
+      <c r="C8">
+        <v>3.0873811487714373E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.75143936106316034</v>
+      </c>
+      <c r="E8">
+        <v>1.5057106122392538</v>
+      </c>
+      <c r="F8">
+        <v>2.3340517591290153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2.9982502355654441</v>
+      </c>
+      <c r="C9">
+        <v>3.2999063041809114E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.63435114748153287</v>
+      </c>
+      <c r="E9">
+        <v>1.236923966463374</v>
+      </c>
+      <c r="F9">
+        <v>2.0331524745473435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>1.2451402237401454</v>
+      </c>
+      <c r="C2">
+        <v>-2.1507346840742749</v>
+      </c>
+      <c r="D2">
+        <v>-1.2135423682242636</v>
+      </c>
+      <c r="E2">
+        <v>-0.19787892059656814</v>
+      </c>
+      <c r="F2">
+        <v>1.0527313277559489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1.726727465843644</v>
+      </c>
+      <c r="C3">
+        <v>-1.604007911371458</v>
+      </c>
+      <c r="D3">
+        <v>-0.92968754351127203</v>
+      </c>
+      <c r="E3">
+        <v>-0.13514968584687631</v>
+      </c>
+      <c r="F3">
+        <v>0.98873476370500224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>2.6106334322731759</v>
+      </c>
+      <c r="C4">
+        <v>-1.0712740960010654</v>
+      </c>
+      <c r="D4">
+        <v>-0.51103445854199425</v>
+      </c>
+      <c r="E4">
+        <v>0.12014091600765209</v>
+      </c>
+      <c r="F4">
+        <v>1.0421587354203303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1.4100958144461557</v>
+      </c>
+      <c r="C5">
+        <v>-1.3119590759285016</v>
+      </c>
+      <c r="D5">
+        <v>-0.53638319105726751</v>
+      </c>
+      <c r="E5">
+        <v>0.31971851666548723</v>
+      </c>
+      <c r="F5">
+        <v>1.4231952160971288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>3.3707790068867345</v>
+      </c>
+      <c r="C6">
+        <v>-0.76802593669979791</v>
+      </c>
+      <c r="D6">
+        <v>-0.26095889050106247</v>
+      </c>
+      <c r="E6">
+        <v>0.34914556588967433</v>
+      </c>
+      <c r="F6">
+        <v>1.1962691383621453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>2.1794195114676622</v>
+      </c>
+      <c r="C7">
+        <v>-1.0232038104995489</v>
+      </c>
+      <c r="D7">
+        <v>-0.44883240770539995</v>
+      </c>
+      <c r="E7">
+        <v>0.22215749646235874</v>
+      </c>
+      <c r="F7">
+        <v>1.1641401942354679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>3.1105850611851049</v>
+      </c>
+      <c r="C8">
+        <v>-0.72937999656965902</v>
+      </c>
+      <c r="D8">
+        <v>-0.18377646127169156</v>
+      </c>
+      <c r="E8">
+        <v>0.45385649731707667</v>
+      </c>
+      <c r="F8">
+        <v>1.2864868275864447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>1.4537860338945439</v>
+      </c>
+      <c r="C9">
+        <v>-0.5624451210952276</v>
+      </c>
+      <c r="D9">
+        <v>0.11173108292880633</v>
+      </c>
+      <c r="E9">
+        <v>0.86834244208709221</v>
+      </c>
+      <c r="F9">
+        <v>1.9804723551694965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1.1725880238211832</v>
+      </c>
+      <c r="C2">
+        <v>-1.1199828729373242</v>
+      </c>
+      <c r="D2">
+        <v>-6.624448834669007E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.2712094700590064</v>
+      </c>
+      <c r="F2">
+        <v>2.478995386895936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1.9119252273487377</v>
+      </c>
+      <c r="C3">
+        <v>-0.13861486147280447</v>
+      </c>
+      <c r="D3">
+        <v>0.61744445907975365</v>
+      </c>
+      <c r="E3">
+        <v>1.5295418492412642</v>
+      </c>
+      <c r="F3">
+        <v>2.6682001537556133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>1.4629287824502499</v>
+      </c>
+      <c r="C4">
+        <v>0.11384560430162348</v>
+      </c>
+      <c r="D4">
+        <v>1.1201907736508816</v>
+      </c>
+      <c r="E4">
+        <v>1.6301383993722329</v>
+      </c>
+      <c r="F4">
+        <v>2.846364263848244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>2.1487902931124716</v>
+      </c>
+      <c r="C5">
+        <v>-0.54196568996032235</v>
+      </c>
+      <c r="D5">
+        <v>0.162714288494759</v>
+      </c>
+      <c r="E5">
+        <v>0.90069125983853293</v>
+      </c>
+      <c r="F5">
+        <v>1.7196892881201857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>2.0350261770703848</v>
+      </c>
+      <c r="C6">
+        <v>9.3047723143214762E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.89959232741926409</v>
+      </c>
+      <c r="E6">
+        <v>1.6762073965716289</v>
+      </c>
+      <c r="F6">
+        <v>2.7895056389183046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>2.3061366704799258</v>
+      </c>
+      <c r="C7">
+        <v>-0.22978430967930488</v>
+      </c>
+      <c r="D7">
+        <v>0.42635748190697015</v>
+      </c>
+      <c r="E7">
+        <v>1.1308989780146088</v>
+      </c>
+      <c r="F7">
+        <v>2.0455895286603263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>2.4644618085876195</v>
+      </c>
+      <c r="C8">
+        <v>-0.14247097513706428</v>
+      </c>
+      <c r="D8">
+        <v>0.59558094353883173</v>
+      </c>
+      <c r="E8">
+        <v>1.4412559750414697</v>
+      </c>
+      <c r="F8">
+        <v>2.3825808859693374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>2.2182465121504973</v>
+      </c>
+      <c r="C9">
+        <v>0.12673392934008781</v>
+      </c>
+      <c r="D9">
+        <v>0.94113763834225284</v>
+      </c>
+      <c r="E9">
+        <v>1.5984845234946197</v>
+      </c>
+      <c r="F9">
+        <v>2.6784041856699119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>1.1907103701398261</v>
+      </c>
+      <c r="C2">
+        <v>-2.9121483938938533</v>
+      </c>
+      <c r="D2">
+        <v>-1.3894477414266988</v>
+      </c>
+      <c r="E2">
+        <v>-9.8095262303558362E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.2968327348714255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1.6521268820148038</v>
+      </c>
+      <c r="C3">
+        <v>-1.6623385413202652</v>
+      </c>
+      <c r="D3">
+        <v>-0.87165882168331488</v>
+      </c>
+      <c r="E3">
+        <v>-5.7770164071699048E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.97166530720843691</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>3.2140342323034106</v>
+      </c>
+      <c r="C4">
+        <v>-1.1352288889495499</v>
+      </c>
+      <c r="D4">
+        <v>-0.58714776922042922</v>
+      </c>
+      <c r="E4">
+        <v>-5.8768768804414104E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.95694428185202551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1.4746547355894428</v>
+      </c>
+      <c r="C5">
+        <v>-1.4202675540876748</v>
+      </c>
+      <c r="D5">
+        <v>-0.57635396026907504</v>
+      </c>
+      <c r="E5">
+        <v>0.38165889582252721</v>
+      </c>
+      <c r="F5">
+        <v>1.5332756705256758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>3.4613906273546542</v>
+      </c>
+      <c r="C6">
+        <v>-1.0376644302756206</v>
+      </c>
+      <c r="D6">
+        <v>-0.44927746740324426</v>
+      </c>
+      <c r="E6">
+        <v>0.15233848366782582</v>
+      </c>
+      <c r="F6">
+        <v>1.1239778938215754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>2.937159912889503</v>
+      </c>
+      <c r="C7">
+        <v>-1.0674416698635396</v>
+      </c>
+      <c r="D7">
+        <v>-0.4169713347510341</v>
+      </c>
+      <c r="E7">
+        <v>0.20021714406240543</v>
+      </c>
+      <c r="F7">
+        <v>1.0811585356918416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>3.0095156820943529</v>
+      </c>
+      <c r="C8">
+        <v>-0.91703991444950828</v>
+      </c>
+      <c r="D8">
+        <v>-0.30752279852159092</v>
+      </c>
+      <c r="E8">
+        <v>0.39009469009985959</v>
+      </c>
+      <c r="F8">
+        <v>1.2178951265314781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>1.6673828771563728</v>
+      </c>
+      <c r="C9">
+        <v>-0.86306552131936265</v>
+      </c>
+      <c r="D9">
+        <v>-0.3224530505182493</v>
+      </c>
+      <c r="E9">
+        <v>0.54129176824872227</v>
+      </c>
+      <c r="F9">
+        <v>1.5693473160423559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -6775,7 +7602,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -7827,13 +8654,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -8857,13 +9684,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -9920,13 +10747,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -10950,13 +11777,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12029,13 +12856,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -13070,7 +13897,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -13078,7 +13905,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -14124,7 +14951,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -14132,7 +14959,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="8.5" customWidth="1"/>
+    <col min="1" max="26" width="8.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
